--- a/G_bazowa.xlsx
+++ b/G_bazowa.xlsx
@@ -789,7 +789,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -806,13 +806,6 @@
       <family val="2"/>
       <charset val="238"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="238"/>
     </font>
   </fonts>
   <fills count="3">
@@ -943,14 +936,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1234,8 +1227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:HH59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="EG1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:HG2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1464,652 +1457,652 @@
       <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="L2" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="M2" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="N2" s="16" t="s">
+      <c r="N2" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="O2" s="16" t="s">
+      <c r="O2" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="P2" s="16" t="s">
+      <c r="P2" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="Q2" s="16" t="s">
+      <c r="Q2" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="R2" s="16" t="s">
+      <c r="R2" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="S2" s="16" t="s">
+      <c r="S2" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="T2" s="16" t="s">
+      <c r="T2" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="U2" s="16" t="s">
+      <c r="U2" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="V2" s="16" t="s">
+      <c r="V2" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="W2" s="16" t="s">
+      <c r="W2" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="X2" s="16" t="s">
+      <c r="X2" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="Y2" s="16" t="s">
+      <c r="Y2" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="Z2" s="16" t="s">
+      <c r="Z2" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="AA2" s="16" t="s">
+      <c r="AA2" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="AB2" s="16" t="s">
+      <c r="AB2" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="AC2" s="16" t="s">
+      <c r="AC2" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="AD2" s="16" t="s">
+      <c r="AD2" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="AE2" s="16" t="s">
+      <c r="AE2" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="AF2" s="16" t="s">
+      <c r="AF2" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="AG2" s="16" t="s">
+      <c r="AG2" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="AH2" s="16" t="s">
+      <c r="AH2" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="AI2" s="16" t="s">
+      <c r="AI2" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="AJ2" s="16" t="s">
+      <c r="AJ2" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="AK2" s="16" t="s">
+      <c r="AK2" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="AL2" s="16" t="s">
+      <c r="AL2" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="AM2" s="16" t="s">
+      <c r="AM2" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="AN2" s="16" t="s">
+      <c r="AN2" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="AO2" s="16" t="s">
+      <c r="AO2" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="AP2" s="16" t="s">
+      <c r="AP2" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="AQ2" s="16" t="s">
+      <c r="AQ2" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="AR2" s="16" t="s">
+      <c r="AR2" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="AS2" s="16" t="s">
+      <c r="AS2" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="AT2" s="16" t="s">
+      <c r="AT2" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="AU2" s="16" t="s">
+      <c r="AU2" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="AV2" s="16" t="s">
+      <c r="AV2" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="AW2" s="16" t="s">
+      <c r="AW2" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="AX2" s="16" t="s">
+      <c r="AX2" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="AY2" s="16" t="s">
+      <c r="AY2" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="AZ2" s="16" t="s">
+      <c r="AZ2" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="BA2" s="16" t="s">
+      <c r="BA2" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="BB2" s="16" t="s">
+      <c r="BB2" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="BC2" s="16" t="s">
+      <c r="BC2" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="BD2" s="16" t="s">
+      <c r="BD2" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="BE2" s="16" t="s">
+      <c r="BE2" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="BF2" s="16" t="s">
+      <c r="BF2" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="BG2" s="16" t="s">
+      <c r="BG2" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="BH2" s="16" t="s">
+      <c r="BH2" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="BI2" s="16" t="s">
+      <c r="BI2" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="BJ2" s="16" t="s">
+      <c r="BJ2" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="BK2" s="16" t="s">
+      <c r="BK2" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="BL2" s="16" t="s">
+      <c r="BL2" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="BM2" s="16" t="s">
+      <c r="BM2" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="BN2" s="16" t="s">
+      <c r="BN2" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="BO2" s="16" t="s">
+      <c r="BO2" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="BP2" s="16" t="s">
+      <c r="BP2" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="BQ2" s="16" t="s">
+      <c r="BQ2" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="BR2" s="16" t="s">
+      <c r="BR2" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="BS2" s="16" t="s">
+      <c r="BS2" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="BT2" s="16" t="s">
+      <c r="BT2" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="BU2" s="16" t="s">
+      <c r="BU2" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="BV2" s="16" t="s">
+      <c r="BV2" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="BW2" s="16" t="s">
+      <c r="BW2" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="BX2" s="16" t="s">
+      <c r="BX2" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="BY2" s="16" t="s">
+      <c r="BY2" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="BZ2" s="16" t="s">
+      <c r="BZ2" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="CA2" s="16" t="s">
+      <c r="CA2" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="CB2" s="16" t="s">
+      <c r="CB2" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="CC2" s="16" t="s">
+      <c r="CC2" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="CD2" s="16" t="s">
+      <c r="CD2" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="CE2" s="16" t="s">
+      <c r="CE2" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="CF2" s="16" t="s">
+      <c r="CF2" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="CG2" s="16" t="s">
+      <c r="CG2" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="CH2" s="16" t="s">
+      <c r="CH2" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="CI2" s="16" t="s">
+      <c r="CI2" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="CJ2" s="16" t="s">
+      <c r="CJ2" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="CK2" s="16" t="s">
+      <c r="CK2" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="CL2" s="16" t="s">
+      <c r="CL2" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="CM2" s="16" t="s">
+      <c r="CM2" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="CN2" s="16" t="s">
+      <c r="CN2" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="CO2" s="16" t="s">
+      <c r="CO2" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="CP2" s="16" t="s">
+      <c r="CP2" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="CQ2" s="16" t="s">
+      <c r="CQ2" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="CR2" s="16" t="s">
+      <c r="CR2" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="CS2" s="16" t="s">
+      <c r="CS2" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="CT2" s="16" t="s">
+      <c r="CT2" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="CU2" s="16" t="s">
+      <c r="CU2" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="CV2" s="16" t="s">
+      <c r="CV2" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="CW2" s="16" t="s">
+      <c r="CW2" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="CX2" s="16" t="s">
+      <c r="CX2" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="CY2" s="16" t="s">
+      <c r="CY2" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="CZ2" s="16" t="s">
+      <c r="CZ2" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="DA2" s="16" t="s">
+      <c r="DA2" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="DB2" s="16" t="s">
+      <c r="DB2" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="DC2" s="16" t="s">
+      <c r="DC2" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="DD2" s="16" t="s">
+      <c r="DD2" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="DE2" s="16" t="s">
+      <c r="DE2" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="DF2" s="16" t="s">
+      <c r="DF2" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="DG2" s="16" t="s">
+      <c r="DG2" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="DH2" s="16" t="s">
+      <c r="DH2" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="DI2" s="16" t="s">
+      <c r="DI2" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="DJ2" s="16" t="s">
+      <c r="DJ2" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="DK2" s="16" t="s">
+      <c r="DK2" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="DL2" s="16" t="s">
+      <c r="DL2" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="DM2" s="16" t="s">
+      <c r="DM2" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="DN2" s="16" t="s">
+      <c r="DN2" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="DO2" s="16" t="s">
+      <c r="DO2" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="DP2" s="16" t="s">
+      <c r="DP2" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="DQ2" s="16" t="s">
+      <c r="DQ2" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="DR2" s="16" t="s">
+      <c r="DR2" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="DS2" s="16" t="s">
+      <c r="DS2" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="DT2" s="16" t="s">
+      <c r="DT2" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="DU2" s="16" t="s">
+      <c r="DU2" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="DV2" s="16" t="s">
+      <c r="DV2" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="DW2" s="16" t="s">
+      <c r="DW2" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="DX2" s="16" t="s">
+      <c r="DX2" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="DY2" s="16" t="s">
+      <c r="DY2" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="DZ2" s="16" t="s">
+      <c r="DZ2" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="EA2" s="16" t="s">
+      <c r="EA2" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="EB2" s="16" t="s">
+      <c r="EB2" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="EC2" s="16" t="s">
+      <c r="EC2" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="ED2" s="16" t="s">
+      <c r="ED2" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="EE2" s="16" t="s">
+      <c r="EE2" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="EF2" s="16" t="s">
+      <c r="EF2" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="EG2" s="16" t="s">
+      <c r="EG2" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="EH2" s="16" t="s">
+      <c r="EH2" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="EI2" s="16" t="s">
+      <c r="EI2" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="EJ2" s="16" t="s">
+      <c r="EJ2" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="EK2" s="16" t="s">
+      <c r="EK2" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="EL2" s="16" t="s">
+      <c r="EL2" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="EM2" s="16" t="s">
+      <c r="EM2" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="EN2" s="16" t="s">
+      <c r="EN2" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="EO2" s="16" t="s">
+      <c r="EO2" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="EP2" s="16" t="s">
+      <c r="EP2" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="EQ2" s="16" t="s">
+      <c r="EQ2" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="ER2" s="16" t="s">
+      <c r="ER2" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="ES2" s="16" t="s">
+      <c r="ES2" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="ET2" s="16" t="s">
+      <c r="ET2" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="EU2" s="16" t="s">
+      <c r="EU2" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="EV2" s="16" t="s">
+      <c r="EV2" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="EW2" s="16" t="s">
+      <c r="EW2" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="EX2" s="16" t="s">
+      <c r="EX2" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="EY2" s="16" t="s">
+      <c r="EY2" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="EZ2" s="16" t="s">
+      <c r="EZ2" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="FA2" s="16" t="s">
+      <c r="FA2" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="FB2" s="16" t="s">
+      <c r="FB2" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="FC2" s="16" t="s">
+      <c r="FC2" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="FD2" s="16" t="s">
+      <c r="FD2" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="FE2" s="16" t="s">
+      <c r="FE2" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="FF2" s="16" t="s">
+      <c r="FF2" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="FG2" s="16" t="s">
+      <c r="FG2" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="FH2" s="16" t="s">
+      <c r="FH2" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="FI2" s="16" t="s">
+      <c r="FI2" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="FJ2" s="16" t="s">
+      <c r="FJ2" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="FK2" s="16" t="s">
+      <c r="FK2" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="FL2" s="16" t="s">
+      <c r="FL2" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="FM2" s="16" t="s">
+      <c r="FM2" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="FN2" s="16" t="s">
+      <c r="FN2" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="FO2" s="16" t="s">
+      <c r="FO2" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="FP2" s="16" t="s">
+      <c r="FP2" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="FQ2" s="16" t="s">
+      <c r="FQ2" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="FR2" s="16" t="s">
+      <c r="FR2" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="FS2" s="16" t="s">
+      <c r="FS2" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="FT2" s="16" t="s">
+      <c r="FT2" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="FU2" s="16" t="s">
+      <c r="FU2" s="14" t="s">
         <v>216</v>
       </c>
-      <c r="FV2" s="16" t="s">
+      <c r="FV2" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="FW2" s="16" t="s">
+      <c r="FW2" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="FX2" s="16" t="s">
+      <c r="FX2" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="FY2" s="16" t="s">
+      <c r="FY2" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="FZ2" s="16" t="s">
+      <c r="FZ2" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="GA2" s="16" t="s">
+      <c r="GA2" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="GB2" s="16" t="s">
+      <c r="GB2" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="GC2" s="16" t="s">
+      <c r="GC2" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="GD2" s="16" t="s">
+      <c r="GD2" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="GE2" s="16" t="s">
+      <c r="GE2" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="GF2" s="16" t="s">
+      <c r="GF2" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="GG2" s="16" t="s">
+      <c r="GG2" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="GH2" s="16" t="s">
+      <c r="GH2" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="GI2" s="16" t="s">
+      <c r="GI2" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="GJ2" s="16" t="s">
+      <c r="GJ2" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="GK2" s="16" t="s">
+      <c r="GK2" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="GL2" s="16" t="s">
+      <c r="GL2" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="GM2" s="16" t="s">
+      <c r="GM2" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="GN2" s="16" t="s">
+      <c r="GN2" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="GO2" s="16" t="s">
+      <c r="GO2" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="GP2" s="16" t="s">
+      <c r="GP2" s="14" t="s">
         <v>236</v>
       </c>
-      <c r="GQ2" s="16" t="s">
+      <c r="GQ2" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="GR2" s="16" t="s">
+      <c r="GR2" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="GS2" s="16" t="s">
+      <c r="GS2" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="GT2" s="16" t="s">
+      <c r="GT2" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="GU2" s="16" t="s">
+      <c r="GU2" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="GV2" s="16" t="s">
+      <c r="GV2" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="GW2" s="16" t="s">
+      <c r="GW2" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="GX2" s="16" t="s">
+      <c r="GX2" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="GY2" s="16" t="s">
+      <c r="GY2" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="GZ2" s="16" t="s">
+      <c r="GZ2" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="HA2" s="16" t="s">
+      <c r="HA2" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="HB2" s="16" t="s">
+      <c r="HB2" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="HC2" s="16" t="s">
+      <c r="HC2" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="HD2" s="16" t="s">
+      <c r="HD2" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="HE2" s="16" t="s">
+      <c r="HE2" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="HF2" s="16" t="s">
+      <c r="HF2" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="HG2" s="16" t="s">
+      <c r="HG2" s="14" t="s">
         <v>252</v>
       </c>
       <c r="HH2" s="7"/>
     </row>
     <row r="3" spans="1:216" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="12">
@@ -2756,7 +2749,7 @@
       </c>
     </row>
     <row r="4" spans="1:216" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="12">
@@ -3403,7 +3396,7 @@
       </c>
     </row>
     <row r="5" spans="1:216" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="12">
@@ -4050,7 +4043,7 @@
       </c>
     </row>
     <row r="6" spans="1:216" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="12">
@@ -4697,7 +4690,7 @@
       </c>
     </row>
     <row r="7" spans="1:216" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="15" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="12">
@@ -5344,7 +5337,7 @@
       </c>
     </row>
     <row r="8" spans="1:216" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="15" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="12">
@@ -5991,7 +5984,7 @@
       </c>
     </row>
     <row r="9" spans="1:216" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="15" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="12" t="s">
@@ -6638,7 +6631,7 @@
       </c>
     </row>
     <row r="10" spans="1:216" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="12" t="s">
@@ -7285,7 +7278,7 @@
       </c>
     </row>
     <row r="11" spans="1:216" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="15" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="12">
@@ -7932,7 +7925,7 @@
       </c>
     </row>
     <row r="12" spans="1:216" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="15" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="12">
@@ -8579,7 +8572,7 @@
       </c>
     </row>
     <row r="13" spans="1:216" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="12">
@@ -9226,7 +9219,7 @@
       </c>
     </row>
     <row r="14" spans="1:216" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="15" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="12">
@@ -9873,7 +9866,7 @@
       </c>
     </row>
     <row r="15" spans="1:216" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="15" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="12">
@@ -10520,7 +10513,7 @@
       </c>
     </row>
     <row r="16" spans="1:216" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="16" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="12">
@@ -11167,7 +11160,7 @@
       </c>
     </row>
     <row r="17" spans="1:215" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="12">
@@ -11814,7 +11807,7 @@
       </c>
     </row>
     <row r="18" spans="1:215" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="16" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="12" t="s">
@@ -12461,7 +12454,7 @@
       </c>
     </row>
     <row r="19" spans="1:215" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="16" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="12">
@@ -13108,7 +13101,7 @@
       </c>
     </row>
     <row r="20" spans="1:215" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="16" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="12">
@@ -13755,7 +13748,7 @@
       </c>
     </row>
     <row r="21" spans="1:215" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="16" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="12">
@@ -14402,7 +14395,7 @@
       </c>
     </row>
     <row r="22" spans="1:215" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="16" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="12">
@@ -15049,7 +15042,7 @@
       </c>
     </row>
     <row r="23" spans="1:215" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="16" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="12">
@@ -15696,7 +15689,7 @@
       </c>
     </row>
     <row r="24" spans="1:215" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="16" t="s">
         <v>23</v>
       </c>
       <c r="B24" s="12">
@@ -16343,7 +16336,7 @@
       </c>
     </row>
     <row r="25" spans="1:215" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="12">
@@ -16990,7 +16983,7 @@
       </c>
     </row>
     <row r="26" spans="1:215" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="16" t="s">
         <v>25</v>
       </c>
       <c r="B26" s="12">
@@ -17637,7 +17630,7 @@
       </c>
     </row>
     <row r="27" spans="1:215" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="16" t="s">
         <v>26</v>
       </c>
       <c r="B27" s="12">
@@ -18284,7 +18277,7 @@
       </c>
     </row>
     <row r="28" spans="1:215" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="16" t="s">
         <v>27</v>
       </c>
       <c r="B28" s="12">
@@ -18931,7 +18924,7 @@
       </c>
     </row>
     <row r="29" spans="1:215" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="16" t="s">
         <v>28</v>
       </c>
       <c r="B29" s="12">
@@ -19578,7 +19571,7 @@
       </c>
     </row>
     <row r="30" spans="1:215" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="16" t="s">
         <v>29</v>
       </c>
       <c r="B30" s="12">
@@ -20225,7 +20218,7 @@
       </c>
     </row>
     <row r="31" spans="1:215" x14ac:dyDescent="0.25">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="16" t="s">
         <v>30</v>
       </c>
       <c r="B31" s="12">
@@ -20872,7 +20865,7 @@
       </c>
     </row>
     <row r="32" spans="1:215" x14ac:dyDescent="0.25">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="16" t="s">
         <v>31</v>
       </c>
       <c r="B32" s="12">
@@ -21519,7 +21512,7 @@
       </c>
     </row>
     <row r="33" spans="1:215" x14ac:dyDescent="0.25">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="16" t="s">
         <v>32</v>
       </c>
       <c r="B33" s="12">
@@ -22166,7 +22159,7 @@
       </c>
     </row>
     <row r="34" spans="1:215" x14ac:dyDescent="0.25">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="16" t="s">
         <v>33</v>
       </c>
       <c r="B34" s="12">
@@ -22813,7 +22806,7 @@
       </c>
     </row>
     <row r="35" spans="1:215" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="16" t="s">
         <v>34</v>
       </c>
       <c r="B35" s="12">
@@ -23460,7 +23453,7 @@
       </c>
     </row>
     <row r="36" spans="1:215" x14ac:dyDescent="0.25">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="16" t="s">
         <v>35</v>
       </c>
       <c r="B36" s="12">
@@ -24107,7 +24100,7 @@
       </c>
     </row>
     <row r="37" spans="1:215" x14ac:dyDescent="0.25">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="16" t="s">
         <v>36</v>
       </c>
       <c r="B37" s="12">
@@ -24754,7 +24747,7 @@
       </c>
     </row>
     <row r="38" spans="1:215" x14ac:dyDescent="0.25">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="16" t="s">
         <v>37</v>
       </c>
       <c r="B38" s="12">
@@ -25401,7 +25394,7 @@
       </c>
     </row>
     <row r="39" spans="1:215" x14ac:dyDescent="0.25">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="16" t="s">
         <v>38</v>
       </c>
       <c r="B39" s="12">
@@ -26048,7 +26041,7 @@
       </c>
     </row>
     <row r="40" spans="1:215" x14ac:dyDescent="0.25">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="16" t="s">
         <v>39</v>
       </c>
       <c r="B40" s="12">
@@ -26695,7 +26688,7 @@
       </c>
     </row>
     <row r="41" spans="1:215" x14ac:dyDescent="0.25">
-      <c r="A41" s="15" t="s">
+      <c r="A41" s="16" t="s">
         <v>40</v>
       </c>
       <c r="B41" s="12" t="s">
@@ -27342,7 +27335,7 @@
       </c>
     </row>
     <row r="42" spans="1:215" x14ac:dyDescent="0.25">
-      <c r="A42" s="15" t="s">
+      <c r="A42" s="16" t="s">
         <v>41</v>
       </c>
       <c r="B42" s="12">
@@ -27989,7 +27982,7 @@
       </c>
     </row>
     <row r="43" spans="1:215" x14ac:dyDescent="0.25">
-      <c r="A43" s="15" t="s">
+      <c r="A43" s="16" t="s">
         <v>42</v>
       </c>
       <c r="B43" s="12" t="s">
@@ -28636,7 +28629,7 @@
       </c>
     </row>
     <row r="44" spans="1:215" x14ac:dyDescent="0.25">
-      <c r="A44" s="15" t="s">
+      <c r="A44" s="16" t="s">
         <v>43</v>
       </c>
       <c r="B44" s="12">
@@ -29283,7 +29276,7 @@
       </c>
     </row>
     <row r="45" spans="1:215" x14ac:dyDescent="0.25">
-      <c r="A45" s="15" t="s">
+      <c r="A45" s="16" t="s">
         <v>44</v>
       </c>
       <c r="B45" s="12">
@@ -29930,7 +29923,7 @@
       </c>
     </row>
     <row r="46" spans="1:215" x14ac:dyDescent="0.25">
-      <c r="A46" s="15" t="s">
+      <c r="A46" s="16" t="s">
         <v>45</v>
       </c>
       <c r="B46" s="12">
@@ -30577,7 +30570,7 @@
       </c>
     </row>
     <row r="47" spans="1:215" x14ac:dyDescent="0.25">
-      <c r="A47" s="15" t="s">
+      <c r="A47" s="16" t="s">
         <v>46</v>
       </c>
       <c r="B47" s="12">
@@ -31224,7 +31217,7 @@
       </c>
     </row>
     <row r="48" spans="1:215" x14ac:dyDescent="0.25">
-      <c r="A48" s="15" t="s">
+      <c r="A48" s="16" t="s">
         <v>47</v>
       </c>
       <c r="B48" s="12">
@@ -31871,7 +31864,7 @@
       </c>
     </row>
     <row r="49" spans="1:215" x14ac:dyDescent="0.25">
-      <c r="A49" s="15" t="s">
+      <c r="A49" s="16" t="s">
         <v>48</v>
       </c>
       <c r="B49" s="12">
@@ -32518,7 +32511,7 @@
       </c>
     </row>
     <row r="50" spans="1:215" x14ac:dyDescent="0.25">
-      <c r="A50" s="15" t="s">
+      <c r="A50" s="16" t="s">
         <v>49</v>
       </c>
       <c r="B50" s="12">
@@ -33165,7 +33158,7 @@
       </c>
     </row>
     <row r="51" spans="1:215" x14ac:dyDescent="0.25">
-      <c r="A51" s="15" t="s">
+      <c r="A51" s="16" t="s">
         <v>50</v>
       </c>
       <c r="B51" s="12">
